--- a/文档/入门/版本区别.xlsx
+++ b/文档/入门/版本区别.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File\Xperia-Guide\文档\入门\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3132F398-3515-4513-AE82-FBCD724AC4F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719B258B-7398-4B6E-BEB5-5DF01AA9A5AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2259BD6B-046F-457E-850A-CA2AB765524D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2259BD6B-046F-457E-850A-CA2AB765524D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="硬件" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
   <si>
     <t>双卡无锁</t>
   </si>
@@ -134,6 +135,45 @@
   </si>
   <si>
     <t>部分机型国行特供大内存</t>
+  </si>
+  <si>
+    <t>运营商</t>
+  </si>
+  <si>
+    <t>ROM/RAM</t>
+  </si>
+  <si>
+    <t>Ntt Docomo</t>
+  </si>
+  <si>
+    <t>AU/KDDI</t>
+  </si>
+  <si>
+    <t>SoftBank</t>
+  </si>
+  <si>
+    <t>单卡有锁</t>
+  </si>
+  <si>
+    <t>机身印有运营商标识和型号</t>
+  </si>
+  <si>
+    <t>外观与公开版相同</t>
+  </si>
+  <si>
+    <t>NFC芯片</t>
+  </si>
+  <si>
+    <t>NXP，不支持Felica</t>
+  </si>
+  <si>
+    <t>Sony/NXP，支持Felica</t>
+  </si>
+  <si>
+    <t>部分型号阉割RAM或ROM</t>
+  </si>
+  <si>
+    <t>国行部分型号特供大内存</t>
   </si>
 </sst>
 </file>
@@ -169,7 +209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -178,13 +218,22 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -502,7 +551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE4A109C-1CEF-4DE7-9DC0-EC468D80073A}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -539,58 +588,58 @@
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
       <c r="E3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="5"/>
+      <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="5" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="7"/>
       <c r="G5" s="1" t="s">
         <v>15</v>
       </c>
@@ -599,31 +648,31 @@
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
@@ -632,52 +681,46 @@
       <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="3"/>
+      <c r="F10" s="8"/>
       <c r="G10" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="E5:F5"/>
     <mergeCell ref="B9:G9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B6:D6"/>
@@ -686,6 +729,123 @@
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="E10:F10"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="E5:F5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37EEC21F-9015-44C4-87DC-795FFCCD67B6}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.77734375" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" customWidth="1"/>
+    <col min="4" max="4" width="28.109375" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="D2:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/文档/入门/版本区别.xlsx
+++ b/文档/入门/版本区别.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File\Xperia-Guide\文档\入门\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719B258B-7398-4B6E-BEB5-5DF01AA9A5AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0A51B7-DBD0-4536-8928-5DE6493249C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2259BD6B-046F-457E-850A-CA2AB765524D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{2259BD6B-046F-457E-850A-CA2AB765524D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="硬件" sheetId="2" r:id="rId2"/>
+    <sheet name="软件 " sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="64">
   <si>
     <t>双卡无锁</t>
   </si>
@@ -174,16 +175,77 @@
   </si>
   <si>
     <t>国行部分型号特供大内存</t>
+  </si>
+  <si>
+    <t>内置推广应用</t>
+  </si>
+  <si>
+    <t>单双卡支持</t>
+  </si>
+  <si>
+    <t>绿灯刷写固件</t>
+  </si>
+  <si>
+    <t>系统内置非常多的运营商应用，同时包含谷歌套件</t>
+  </si>
+  <si>
+    <t>除谷歌套件外基本没有推广应用（不是完全没有）</t>
+  </si>
+  <si>
+    <t>可解BL</t>
+  </si>
+  <si>
+    <t>部分无论解除网络锁与否，都不能解BL，部分在解除网络锁后可以解BL</t>
+  </si>
+  <si>
+    <t>不支持部分中国移动常用频段</t>
+  </si>
+  <si>
+    <t>国内运营商基本完美使用，电信需系统和运营商同时开通VOLTE</t>
+  </si>
+  <si>
+    <t>同单卡无锁</t>
+  </si>
+  <si>
+    <t>频段支持（已解网络锁）</t>
+  </si>
+  <si>
+    <t>不支持5G的型号大多默认不支持国内VOLTE，支持5G的型号默认支持VOLTE</t>
+  </si>
+  <si>
+    <t>仅支持单卡且目前无法刷机解锁</t>
+  </si>
+  <si>
+    <t>可以刷双卡固件并更换双卡卡槽实现双卡</t>
+  </si>
+  <si>
+    <t>e:Canada</t>
+  </si>
+  <si>
+    <t>只能刷DO固件</t>
+  </si>
+  <si>
+    <t>可以互刷固件，功能支持就是另一回事了（</t>
+  </si>
+  <si>
+    <t>国内型号一般默认支持</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -209,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -232,7 +294,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -552,7 +627,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -588,58 +663,58 @@
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
       <c r="E3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="7"/>
+      <c r="G3" s="12"/>
     </row>
     <row r="4" spans="1:7" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="7" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="12"/>
       <c r="G5" s="1" t="s">
         <v>15</v>
       </c>
@@ -648,95 +723,96 @@
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6" t="s">
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7" t="s">
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" t="s">
-        <v>32</v>
-      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B9:G9"/>
     <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E10:G10"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="E5:F5"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E9:F9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -744,8 +820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37EEC21F-9015-44C4-87DC-795FFCCD67B6}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection sqref="A1:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -775,63 +851,63 @@
       <c r="A2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="7"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="6"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="11"/>
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="12"/>
+      <c r="C5" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="11"/>
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="6"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="11"/>
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
       <c r="D7" s="3" t="s">
         <v>45</v>
       </c>
@@ -849,4 +925,161 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B547179F-1DB5-48B1-B0C0-5DDB5A89DB78}">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="6" width="18.77734375" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/文档/入门/版本区别.xlsx
+++ b/文档/入门/版本区别.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File\Xperia-Guide\文档\入门\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0A51B7-DBD0-4536-8928-5DE6493249C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8735C92C-5057-411C-8BA3-E8332D62835E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{2259BD6B-046F-457E-850A-CA2AB765524D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2259BD6B-046F-457E-850A-CA2AB765524D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -271,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -285,19 +285,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -663,58 +657,58 @@
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
       <c r="E3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="12"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="12" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="12"/>
+      <c r="F5" s="10"/>
       <c r="G5" s="1" t="s">
         <v>15</v>
       </c>
@@ -723,16 +717,16 @@
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11" t="s">
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -741,58 +735,58 @@
       <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13" t="s">
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="9" t="s">
+      <c r="F9" s="11"/>
+      <c r="G9" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10" t="s">
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -818,110 +812,100 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37EEC21F-9015-44C4-87DC-795FFCCD67B6}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection sqref="A1:A7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G4" sqref="A1:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.77734375" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" customWidth="1"/>
-    <col min="3" max="3" width="24.88671875" customWidth="1"/>
-    <col min="4" max="4" width="28.109375" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1"/>
     <col min="5" max="5" width="17.109375" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B3" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="12"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="3" t="s">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    </row>
+    <row r="7" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" ht="57.6" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="D2:D6"/>
+  <mergeCells count="5">
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -931,8 +915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B547179F-1DB5-48B1-B0C0-5DDB5A89DB78}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G8"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -947,129 +931,131 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11" t="s">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="11"/>
-    </row>
-    <row r="5" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="6" t="s">
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11" t="s">
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="6" t="s">
+      <c r="F7" s="9"/>
+      <c r="G7" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="F4:G4"/>
@@ -1077,8 +1063,6 @@
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/文档/入门/版本区别.xlsx
+++ b/文档/入门/版本区别.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File\Xperia-Guide\文档\入门\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8735C92C-5057-411C-8BA3-E8332D62835E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD78A01-6C5E-4902-8C70-0E28F8AA5BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2259BD6B-046F-457E-850A-CA2AB765524D}"/>
   </bookViews>
@@ -815,7 +815,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G4" sqref="A1:G4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/文档/入门/版本区别.xlsx
+++ b/文档/入门/版本区别.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File\Xperia-Guide\文档\入门\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD78A01-6C5E-4902-8C70-0E28F8AA5BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE3B2A50-0F1B-4497-B757-9A54EA0C871F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2259BD6B-046F-457E-850A-CA2AB765524D}"/>
   </bookViews>
@@ -271,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -289,9 +289,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -303,6 +300,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -657,58 +660,58 @@
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
       <c r="E3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="10"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:7" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="10"/>
+      <c r="F5" s="9"/>
       <c r="G5" s="1" t="s">
         <v>15</v>
       </c>
@@ -717,16 +720,16 @@
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9" t="s">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -735,40 +738,40 @@
       <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11" t="s">
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="11"/>
+      <c r="F9" s="10"/>
       <c r="G9" s="6" t="s">
         <v>32</v>
       </c>
@@ -777,16 +780,16 @@
       <c r="A10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8" t="s">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -815,84 +818,84 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G4" sqref="A1:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.21875" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="11" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9" t="s">
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
     </row>
     <row r="4" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="7" t="s">
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="11" t="s">
         <v>45</v>
       </c>
     </row>
@@ -962,31 +965,31 @@
       <c r="A3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="9"/>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -998,24 +1001,24 @@
       <c r="C5" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
       <c r="G6" s="3" t="s">
         <v>63</v>
       </c>
@@ -1024,15 +1027,15 @@
       <c r="A7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9" t="s">
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="9"/>
+      <c r="F7" s="8"/>
       <c r="G7" s="3" t="s">
         <v>15</v>
       </c>
@@ -1044,13 +1047,13 @@
       <c r="B8" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="9">
